--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A288817-BB38-F243-BDE1-AB0E804F5BD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BC7F5-0420-9844-898C-B39E5BDF338A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{0C6A2047-03AD-2042-9C84-CCF208A16D4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>Machine Name</t>
   </si>
@@ -55,6 +55,216 @@
   </si>
   <si>
     <t>Frequency in Days (Maintenance) or Weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOMER-1 TUBE CUTTING </t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOMER-2 TUBE CUTTING </t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOMER-4 TUBE CUTTING </t>
+  </si>
+  <si>
+    <t>INDOTECH TUBE CUTTING -1</t>
+  </si>
+  <si>
+    <t>INDOTECH TUBE CUTTING -2</t>
+  </si>
+  <si>
+    <t>INDOTECH TUBE CUTTING-5</t>
+  </si>
+  <si>
+    <t>INDOTECH TUBE CUTTING-7</t>
+  </si>
+  <si>
+    <t>INDOTECH TUBE CUTTING-8</t>
+  </si>
+  <si>
+    <t>SOCO TUBE CUTTING-1</t>
+  </si>
+  <si>
+    <t>SOCO TUBE CUTTING-2</t>
+  </si>
+  <si>
+    <t>SOCO TUBE CUTTING-3</t>
+  </si>
+  <si>
+    <t>PEDRAZOLI TUBE CUTTING-1</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>PEDRAZOLI TUBE CUTTING-2</t>
+  </si>
+  <si>
+    <t>PEDRAZOLI TUBE CUTTING-3</t>
+  </si>
+  <si>
+    <t>PEDRAZOLI TUBE CUTTING-4</t>
+  </si>
+  <si>
+    <t>PEDRAZOLI TUBE CUTTING-5</t>
+  </si>
+  <si>
+    <t>PEDRAZOLI TUBE CUTTING-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANO TUBE CUTTING </t>
+  </si>
+  <si>
+    <t>CNC PLASMA-1</t>
+  </si>
+  <si>
+    <t>CNC PLASMA-2</t>
+  </si>
+  <si>
+    <t>CNC PLASMA-3</t>
+  </si>
+  <si>
+    <t>CNC PLASMA-4</t>
+  </si>
+  <si>
+    <t>TRUMPF -1</t>
+  </si>
+  <si>
+    <t>TRUMPF -2</t>
+  </si>
+  <si>
+    <t>TRUMPF -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRAZOLI TUBE BENDING-75 </t>
+  </si>
+  <si>
+    <t>PEDRAZOLI TUBE BENDING-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP TUBE BENDING </t>
+  </si>
+  <si>
+    <t>COMAC TUBE BENDING-1</t>
+  </si>
+  <si>
+    <t>COMAC TUBE BENDING-2</t>
+  </si>
+  <si>
+    <t>COMAC TUBE BENDING-3</t>
+  </si>
+  <si>
+    <t>TAURING  TUBE BENDING-1</t>
+  </si>
+  <si>
+    <t>TAURING TUBE BENDING-2</t>
+  </si>
+  <si>
+    <t>DURMA SHEARING</t>
+  </si>
+  <si>
+    <t>HH SHEARING-1</t>
+  </si>
+  <si>
+    <t>HH SHEARING-2</t>
+  </si>
+  <si>
+    <t>BYSTRONIC SHEARING</t>
+  </si>
+  <si>
+    <t>HACCO SHEARING</t>
+  </si>
+  <si>
+    <t>DURMA BENDING-1</t>
+  </si>
+  <si>
+    <t>DURMA BENDING-2</t>
+  </si>
+  <si>
+    <t>DURMA BENDING-3</t>
+  </si>
+  <si>
+    <t>YAWIE BENDING</t>
+  </si>
+  <si>
+    <t>HACCO BENDING</t>
+  </si>
+  <si>
+    <t>JEKSHINE BENDING</t>
+  </si>
+  <si>
+    <t>NOTCHING -1</t>
+  </si>
+  <si>
+    <t>NOTCHING -2</t>
+  </si>
+  <si>
+    <t>MECHANICAL PRESSPRESS MASTER</t>
+  </si>
+  <si>
+    <t>MECHANICAL PRESS LAMBA</t>
+  </si>
+  <si>
+    <t>MECHANICAL PRESS ISGEC-1</t>
+  </si>
+  <si>
+    <t>MECHANICAL PRESS ISGEC-2</t>
+  </si>
+  <si>
+    <t>HYDRAULIC PRESS FLOW MECH-150T</t>
+  </si>
+  <si>
+    <t>HYDRAULIC PRESS FLOW MECH-200T</t>
+  </si>
+  <si>
+    <t>HYDRAULIC PRESS SPM-100T</t>
+  </si>
+  <si>
+    <t>HYDRAULIC PRESS SPM-200T</t>
+  </si>
+  <si>
+    <t>HYDRAULIC PRESS SHANLIER</t>
+  </si>
+  <si>
+    <t>MARCOPOLO BENDING MACHINE-1</t>
+  </si>
+  <si>
+    <t>MARCOPOLO BENDING MACHINE-2</t>
+  </si>
+  <si>
+    <t>SPEEDY SEAMER-1</t>
+  </si>
+  <si>
+    <t>SPEEDY SEAMER-2</t>
+  </si>
+  <si>
+    <t>DRILLING MACHINE-01</t>
+  </si>
+  <si>
+    <t>DRILLING MACHINE-03</t>
+  </si>
+  <si>
+    <t>HYDROPNEUMATIC  10T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC PRESS WINDOW PILLAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC PRESS SQUEZZING </t>
+  </si>
+  <si>
+    <t>HYDRAULIC PRESS SHARDA</t>
+  </si>
+  <si>
+    <t>Machine Operation</t>
+  </si>
+  <si>
+    <t>Process Name</t>
   </si>
 </sst>
 </file>
@@ -406,21 +616,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A086774F-C4BD-664E-9F53-E53152FD5B93}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,6 +657,532 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BC7F5-0420-9844-898C-B39E5BDF338A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE8F0E7-1FA1-6B45-85C0-BA88462E652C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{0C6A2047-03AD-2042-9C84-CCF208A16D4A}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Machine Weight</t>
   </si>
   <si>
-    <t>Frequency in Days (Maintenance) or Weeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOOMER-1 TUBE CUTTING </t>
   </si>
   <si>
@@ -265,13 +262,16 @@
   </si>
   <si>
     <t>Process Name</t>
+  </si>
+  <si>
+    <t>Frequency (Weekly, Bi-Monthly, Monthly, Quarterly, 4-Monthly, Half Yearly, Yearly)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,16 +279,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -296,12 +309,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +653,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,561 +662,561 @@
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="J1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE8F0E7-1FA1-6B45-85C0-BA88462E652C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A132F16B-5805-314C-A997-F6BCF8D248E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{0C6A2047-03AD-2042-9C84-CCF208A16D4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="105">
   <si>
     <t>Machine Name</t>
   </si>
@@ -265,13 +265,94 @@
   </si>
   <si>
     <t>Frequency (Weekly, Bi-Monthly, Monthly, Quarterly, 4-Monthly, Half Yearly, Yearly)</t>
+  </si>
+  <si>
+    <t>Band saw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube Cutting </t>
+  </si>
+  <si>
+    <t>Cell-04</t>
+  </si>
+  <si>
+    <t>Bi- Monthly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Circular Saw</t>
+  </si>
+  <si>
+    <t>Bunddle Cutting</t>
+  </si>
+  <si>
+    <t>Sheet Cutting</t>
+  </si>
+  <si>
+    <t>Cell-01</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Sheet Punching</t>
+  </si>
+  <si>
+    <t>Tube bending</t>
+  </si>
+  <si>
+    <t>Cell-02</t>
+  </si>
+  <si>
+    <t>4- Monthly</t>
+  </si>
+  <si>
+    <t>Sheet Shearing</t>
+  </si>
+  <si>
+    <t>Sheet Bending</t>
+  </si>
+  <si>
+    <t>Sheet Notching</t>
+  </si>
+  <si>
+    <t>Mechanical press</t>
+  </si>
+  <si>
+    <t>Cell-03</t>
+  </si>
+  <si>
+    <t>4-Months</t>
+  </si>
+  <si>
+    <t>4-  Monthly</t>
+  </si>
+  <si>
+    <t>Hydraulic Press</t>
+  </si>
+  <si>
+    <t>Six - Months</t>
+  </si>
+  <si>
+    <t>Sheet Bending Machine</t>
+  </si>
+  <si>
+    <t>Drilling Machine</t>
+  </si>
+  <si>
+    <t>Hydro pneumatic Press</t>
+  </si>
+  <si>
+    <t>Half Yearly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +363,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -324,17 +411,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +755,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,7 +766,7 @@
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -703,523 +805,1499 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
       <c r="I2" t="s">
         <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
       <c r="I3" t="s">
         <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
       <c r="I4" t="s">
         <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
       <c r="I5" t="s">
         <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
       <c r="I6" t="s">
         <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
       <c r="I7" t="s">
         <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
       <c r="I8" t="s">
         <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
       <c r="I9" t="s">
         <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
       <c r="I10" t="s">
         <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
       <c r="I11" t="s">
         <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
       <c r="I12" t="s">
         <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
       <c r="I13" t="s">
         <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
       <c r="I14" t="s">
         <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
       <c r="I15" t="s">
         <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
       <c r="I16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
       <c r="I17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
       <c r="I18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
       <c r="I19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
       <c r="I20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
       <c r="I21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
       <c r="I22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
       <c r="I24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
       <c r="I25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
       <c r="I26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
       <c r="I27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
       <c r="I28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s">
+        <v>91</v>
+      </c>
       <c r="I30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
       <c r="I31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s">
+        <v>91</v>
+      </c>
       <c r="I32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
       <c r="I33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
+        <v>82</v>
+      </c>
       <c r="I35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>82</v>
+      </c>
       <c r="I36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s">
+        <v>82</v>
+      </c>
       <c r="I37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
       <c r="I38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
       <c r="I39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" t="s">
+        <v>82</v>
+      </c>
       <c r="I40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
       <c r="I41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
       <c r="I42" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>82</v>
+      </c>
       <c r="I43" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" t="s">
+        <v>82</v>
+      </c>
       <c r="I44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" t="s">
+        <v>82</v>
+      </c>
       <c r="I45" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
       <c r="I46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" t="s">
+        <v>82</v>
+      </c>
       <c r="I47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
       <c r="I48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" t="s">
+        <v>82</v>
+      </c>
       <c r="I49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" t="s">
+        <v>91</v>
+      </c>
       <c r="I50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" t="s">
+        <v>98</v>
+      </c>
       <c r="I51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" t="s">
+        <v>98</v>
+      </c>
       <c r="I52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" t="s">
+        <v>98</v>
+      </c>
       <c r="I53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" t="s">
+        <v>98</v>
+      </c>
       <c r="I54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" t="s">
+        <v>98</v>
+      </c>
       <c r="I55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" t="s">
+        <v>100</v>
+      </c>
       <c r="I56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" t="s">
+        <v>82</v>
+      </c>
       <c r="I57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" t="s">
+        <v>104</v>
+      </c>
       <c r="I58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H59" t="s">
+        <v>104</v>
+      </c>
       <c r="I59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" t="s">
+        <v>104</v>
+      </c>
       <c r="I60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" t="s">
+        <v>104</v>
+      </c>
       <c r="I61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" t="s">
+        <v>104</v>
+      </c>
       <c r="I62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" t="s">
+        <v>104</v>
+      </c>
       <c r="I63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" t="s">
+        <v>82</v>
+      </c>
       <c r="I64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" t="s">
+        <v>82</v>
+      </c>
       <c r="I65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" t="s">
+        <v>104</v>
+      </c>
       <c r="I66" t="s">
         <v>8</v>
       </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A132F16B-5805-314C-A997-F6BCF8D248E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81220E85-4DC9-554B-93B5-87A964188892}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{0C6A2047-03AD-2042-9C84-CCF208A16D4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="105">
   <si>
     <t>Machine Name</t>
   </si>
@@ -754,15 +754,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A086774F-C4BD-664E-9F53-E53152FD5B93}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C66" sqref="C2:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -808,9 +808,6 @@
       <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
       <c r="E2" s="3" t="s">
         <v>80</v>
       </c>
@@ -831,9 +828,6 @@
       <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
       <c r="E3" s="3" t="s">
         <v>80</v>
       </c>
@@ -854,9 +848,6 @@
       <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="3" t="s">
         <v>80</v>
       </c>
@@ -877,9 +868,6 @@
       <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>80</v>
       </c>
@@ -900,9 +888,6 @@
       <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>80</v>
       </c>
@@ -923,9 +908,6 @@
       <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
@@ -946,9 +928,6 @@
       <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
       <c r="E8" s="3" t="s">
         <v>80</v>
       </c>
@@ -969,9 +948,6 @@
       <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
       <c r="E9" s="3" t="s">
         <v>80</v>
       </c>
@@ -992,9 +968,6 @@
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
       <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
@@ -1015,9 +988,6 @@
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
       <c r="E11" s="3" t="s">
         <v>80</v>
       </c>
@@ -1038,9 +1008,6 @@
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
       <c r="E12" s="3" t="s">
         <v>80</v>
       </c>
@@ -1061,9 +1028,6 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
       <c r="E13" s="3" t="s">
         <v>80</v>
       </c>
@@ -1084,9 +1048,6 @@
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
       <c r="E14" s="3" t="s">
         <v>80</v>
       </c>
@@ -1107,9 +1068,6 @@
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
       <c r="E15" s="3" t="s">
         <v>80</v>
       </c>
@@ -1130,9 +1088,6 @@
       <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
       <c r="E16" s="3" t="s">
         <v>80</v>
       </c>
@@ -1153,9 +1108,6 @@
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>80</v>
       </c>
@@ -1176,9 +1128,6 @@
       <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
       <c r="E18" s="3" t="s">
         <v>80</v>
       </c>
@@ -1199,9 +1148,6 @@
       <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
       <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
@@ -1222,9 +1168,6 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
       <c r="E20" s="4" t="s">
         <v>86</v>
       </c>
@@ -1245,9 +1188,6 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
       <c r="E21" s="4" t="s">
         <v>86</v>
       </c>
@@ -1268,9 +1208,6 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
       <c r="E22" s="4" t="s">
         <v>86</v>
       </c>
@@ -1291,9 +1228,6 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
       <c r="E23" s="4" t="s">
         <v>86</v>
       </c>
@@ -1314,9 +1248,6 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
       <c r="E24" s="4" t="s">
         <v>86</v>
       </c>
@@ -1337,9 +1268,6 @@
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
       <c r="E25" s="4" t="s">
         <v>86</v>
       </c>
@@ -1360,9 +1288,6 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
       <c r="E26" s="4" t="s">
         <v>86</v>
       </c>
@@ -1383,9 +1308,6 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
       <c r="E27" s="4" t="s">
         <v>90</v>
       </c>
@@ -1406,9 +1328,6 @@
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
       <c r="E28" s="4" t="s">
         <v>90</v>
       </c>
@@ -1429,9 +1348,6 @@
       <c r="B29" t="s">
         <v>21</v>
       </c>
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
       <c r="E29" s="4" t="s">
         <v>90</v>
       </c>
@@ -1452,9 +1368,6 @@
       <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
       <c r="E30" s="4" t="s">
         <v>90</v>
       </c>
@@ -1475,9 +1388,6 @@
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
       <c r="E31" s="4" t="s">
         <v>90</v>
       </c>
@@ -1498,9 +1408,6 @@
       <c r="B32" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
       <c r="E32" s="4" t="s">
         <v>90</v>
       </c>
@@ -1521,9 +1428,6 @@
       <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
       <c r="E33" s="4" t="s">
         <v>90</v>
       </c>
@@ -1544,9 +1448,6 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
       <c r="E34" s="4" t="s">
         <v>90</v>
       </c>
@@ -1567,9 +1468,6 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
-        <v>92</v>
-      </c>
       <c r="E35" s="4" t="s">
         <v>90</v>
       </c>
@@ -1590,9 +1488,6 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
       <c r="E36" s="4" t="s">
         <v>90</v>
       </c>
@@ -1613,9 +1508,6 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
       <c r="E37" s="4" t="s">
         <v>90</v>
       </c>
@@ -1636,9 +1528,6 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
       <c r="E38" s="4" t="s">
         <v>90</v>
       </c>
@@ -1659,9 +1548,6 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
       <c r="E39" s="4" t="s">
         <v>90</v>
       </c>
@@ -1682,9 +1568,6 @@
       <c r="B40" t="s">
         <v>21</v>
       </c>
-      <c r="C40" t="s">
-        <v>93</v>
-      </c>
       <c r="E40" s="4" t="s">
         <v>90</v>
       </c>
@@ -1705,9 +1588,6 @@
       <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
       <c r="E41" s="4" t="s">
         <v>90</v>
       </c>
@@ -1728,9 +1608,6 @@
       <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" t="s">
-        <v>93</v>
-      </c>
       <c r="E42" s="4" t="s">
         <v>90</v>
       </c>
@@ -1751,9 +1628,6 @@
       <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
       <c r="E43" s="4" t="s">
         <v>90</v>
       </c>
@@ -1774,9 +1648,6 @@
       <c r="B44" t="s">
         <v>21</v>
       </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
       <c r="E44" s="4" t="s">
         <v>90</v>
       </c>
@@ -1797,9 +1668,6 @@
       <c r="B45" t="s">
         <v>21</v>
       </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
       <c r="E45" s="4" t="s">
         <v>90</v>
       </c>
@@ -1820,9 +1688,6 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" t="s">
-        <v>94</v>
-      </c>
       <c r="E46" s="4" t="s">
         <v>90</v>
       </c>
@@ -1843,9 +1708,6 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
       <c r="E47" s="4" t="s">
         <v>90</v>
       </c>
@@ -1866,9 +1728,6 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
       <c r="E48" s="4" t="s">
         <v>96</v>
       </c>
@@ -1889,9 +1748,6 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
       <c r="E49" s="4" t="s">
         <v>96</v>
       </c>
@@ -1912,9 +1768,6 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
-        <v>95</v>
-      </c>
       <c r="E50" s="4" t="s">
         <v>96</v>
       </c>
@@ -1935,9 +1788,6 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
       <c r="E51" s="4" t="s">
         <v>96</v>
       </c>
@@ -1958,9 +1808,6 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
       <c r="E52" s="4" t="s">
         <v>96</v>
       </c>
@@ -1981,9 +1828,6 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
-        <v>99</v>
-      </c>
       <c r="E53" s="4" t="s">
         <v>96</v>
       </c>
@@ -2004,9 +1848,6 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
-        <v>99</v>
-      </c>
       <c r="E54" s="4" t="s">
         <v>96</v>
       </c>
@@ -2027,9 +1868,6 @@
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
       <c r="E55" s="4" t="s">
         <v>96</v>
       </c>
@@ -2050,9 +1888,6 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" t="s">
-        <v>99</v>
-      </c>
       <c r="E56" s="4" t="s">
         <v>96</v>
       </c>
@@ -2073,9 +1908,6 @@
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
       <c r="E57" s="4" t="s">
         <v>96</v>
       </c>
@@ -2096,9 +1928,6 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" t="s">
-        <v>99</v>
-      </c>
       <c r="E58" s="4" t="s">
         <v>96</v>
       </c>
@@ -2119,9 +1948,6 @@
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C59" t="s">
-        <v>99</v>
-      </c>
       <c r="E59" s="4" t="s">
         <v>96</v>
       </c>
@@ -2142,9 +1968,6 @@
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" t="s">
-        <v>99</v>
-      </c>
       <c r="E60" s="4" t="s">
         <v>96</v>
       </c>
@@ -2165,9 +1988,6 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
       <c r="E61" s="4" t="s">
         <v>96</v>
       </c>
@@ -2188,9 +2008,6 @@
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" t="s">
-        <v>101</v>
-      </c>
       <c r="E62" s="4" t="s">
         <v>96</v>
       </c>
@@ -2211,9 +2028,6 @@
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63" t="s">
-        <v>101</v>
-      </c>
       <c r="E63" s="4" t="s">
         <v>96</v>
       </c>
@@ -2234,9 +2048,6 @@
       <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
       <c r="E64" s="4" t="s">
         <v>96</v>
       </c>
@@ -2257,9 +2068,6 @@
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
-        <v>102</v>
-      </c>
       <c r="E65" s="4" t="s">
         <v>96</v>
       </c>
@@ -2279,9 +2087,6 @@
       </c>
       <c r="B66" t="s">
         <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>103</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>96</v>

--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81220E85-4DC9-554B-93B5-87A964188892}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7ADA1E-A0BD-F340-B8F1-1402D1CC3B3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{0C6A2047-03AD-2042-9C84-CCF208A16D4A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="107">
   <si>
     <t>Machine Name</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Half Yearly</t>
+  </si>
+  <si>
+    <t>SMS_Group_1</t>
+  </si>
+  <si>
+    <t>SMS_Group_1, TCM_Group_1</t>
   </si>
 </sst>
 </file>
@@ -754,15 +760,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A086774F-C4BD-664E-9F53-E53152FD5B93}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C66" sqref="C2:C66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -808,6 +814,9 @@
       <c r="B2" t="s">
         <v>78</v>
       </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>80</v>
       </c>
@@ -828,6 +837,9 @@
       <c r="B3" t="s">
         <v>78</v>
       </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>80</v>
       </c>
@@ -848,6 +860,9 @@
       <c r="B4" t="s">
         <v>78</v>
       </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>80</v>
       </c>
@@ -868,6 +883,9 @@
       <c r="B5" t="s">
         <v>78</v>
       </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>80</v>
       </c>
@@ -888,6 +906,9 @@
       <c r="B6" t="s">
         <v>78</v>
       </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>80</v>
       </c>
@@ -908,6 +929,9 @@
       <c r="B7" t="s">
         <v>78</v>
       </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
@@ -928,6 +952,9 @@
       <c r="B8" t="s">
         <v>78</v>
       </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>80</v>
       </c>
@@ -948,6 +975,9 @@
       <c r="B9" t="s">
         <v>78</v>
       </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>80</v>
       </c>
@@ -968,6 +998,9 @@
       <c r="B10" t="s">
         <v>83</v>
       </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
@@ -988,6 +1021,9 @@
       <c r="B11" t="s">
         <v>83</v>
       </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>80</v>
       </c>
@@ -1008,6 +1044,9 @@
       <c r="B12" t="s">
         <v>83</v>
       </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>80</v>
       </c>
@@ -1028,6 +1067,9 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>80</v>
       </c>
@@ -1048,6 +1090,9 @@
       <c r="B14" t="s">
         <v>83</v>
       </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>80</v>
       </c>
@@ -1068,6 +1113,9 @@
       <c r="B15" t="s">
         <v>83</v>
       </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>80</v>
       </c>
@@ -1088,6 +1136,9 @@
       <c r="B16" t="s">
         <v>83</v>
       </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>80</v>
       </c>
@@ -1108,6 +1159,9 @@
       <c r="B17" t="s">
         <v>83</v>
       </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
       <c r="E17" s="3" t="s">
         <v>80</v>
       </c>
@@ -1128,6 +1182,9 @@
       <c r="B18" t="s">
         <v>83</v>
       </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>80</v>
       </c>
@@ -1148,6 +1205,9 @@
       <c r="B19" t="s">
         <v>78</v>
       </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
@@ -1168,6 +1228,9 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>86</v>
       </c>
@@ -1188,6 +1251,9 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>86</v>
       </c>
@@ -1208,6 +1274,9 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>86</v>
       </c>
@@ -1228,6 +1297,9 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>86</v>
       </c>
@@ -1248,6 +1320,9 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>86</v>
       </c>
@@ -1268,6 +1343,9 @@
       <c r="B25" t="s">
         <v>21</v>
       </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>86</v>
       </c>
@@ -1288,6 +1366,9 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>86</v>
       </c>
@@ -1308,6 +1389,9 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
       <c r="E27" s="4" t="s">
         <v>90</v>
       </c>
@@ -1328,6 +1412,9 @@
       <c r="B28" t="s">
         <v>21</v>
       </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
       <c r="E28" s="4" t="s">
         <v>90</v>
       </c>
@@ -1348,6 +1435,9 @@
       <c r="B29" t="s">
         <v>21</v>
       </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>90</v>
       </c>
@@ -1368,6 +1458,9 @@
       <c r="B30" t="s">
         <v>21</v>
       </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
       <c r="E30" s="4" t="s">
         <v>90</v>
       </c>
@@ -1388,6 +1481,9 @@
       <c r="B31" t="s">
         <v>21</v>
       </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
       <c r="E31" s="4" t="s">
         <v>90</v>
       </c>
@@ -1408,6 +1504,9 @@
       <c r="B32" t="s">
         <v>21</v>
       </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
       <c r="E32" s="4" t="s">
         <v>90</v>
       </c>
@@ -1428,6 +1527,9 @@
       <c r="B33" t="s">
         <v>21</v>
       </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>90</v>
       </c>
@@ -1448,6 +1550,9 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>90</v>
       </c>
@@ -1468,6 +1573,9 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>90</v>
       </c>
@@ -1488,6 +1596,9 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
       <c r="E36" s="4" t="s">
         <v>90</v>
       </c>
@@ -1508,6 +1619,9 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
       <c r="E37" s="4" t="s">
         <v>90</v>
       </c>
@@ -1528,6 +1642,9 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
       <c r="E38" s="4" t="s">
         <v>90</v>
       </c>
@@ -1548,6 +1665,9 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
       <c r="E39" s="4" t="s">
         <v>90</v>
       </c>
@@ -1568,6 +1688,9 @@
       <c r="B40" t="s">
         <v>21</v>
       </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
       <c r="E40" s="4" t="s">
         <v>90</v>
       </c>
@@ -1588,6 +1711,9 @@
       <c r="B41" t="s">
         <v>21</v>
       </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
       <c r="E41" s="4" t="s">
         <v>90</v>
       </c>
@@ -1608,6 +1734,9 @@
       <c r="B42" t="s">
         <v>21</v>
       </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
       <c r="E42" s="4" t="s">
         <v>90</v>
       </c>
@@ -1628,6 +1757,9 @@
       <c r="B43" t="s">
         <v>21</v>
       </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
       <c r="E43" s="4" t="s">
         <v>90</v>
       </c>
@@ -1648,6 +1780,9 @@
       <c r="B44" t="s">
         <v>21</v>
       </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
       <c r="E44" s="4" t="s">
         <v>90</v>
       </c>
@@ -1668,6 +1803,9 @@
       <c r="B45" t="s">
         <v>21</v>
       </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
       <c r="E45" s="4" t="s">
         <v>90</v>
       </c>
@@ -1688,6 +1826,9 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
       <c r="E46" s="4" t="s">
         <v>90</v>
       </c>
@@ -1708,6 +1849,9 @@
       <c r="B47" t="s">
         <v>8</v>
       </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
       <c r="E47" s="4" t="s">
         <v>90</v>
       </c>
@@ -1728,6 +1872,9 @@
       <c r="B48" t="s">
         <v>8</v>
       </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
       <c r="E48" s="4" t="s">
         <v>96</v>
       </c>
@@ -1748,6 +1895,9 @@
       <c r="B49" t="s">
         <v>8</v>
       </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
       <c r="E49" s="4" t="s">
         <v>96</v>
       </c>
@@ -1768,6 +1918,9 @@
       <c r="B50" t="s">
         <v>8</v>
       </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
       <c r="E50" s="4" t="s">
         <v>96</v>
       </c>
@@ -1788,6 +1941,9 @@
       <c r="B51" t="s">
         <v>8</v>
       </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
       <c r="E51" s="4" t="s">
         <v>96</v>
       </c>
@@ -1808,6 +1964,9 @@
       <c r="B52" t="s">
         <v>8</v>
       </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
       <c r="E52" s="4" t="s">
         <v>96</v>
       </c>
@@ -1828,6 +1987,9 @@
       <c r="B53" t="s">
         <v>8</v>
       </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
       <c r="E53" s="4" t="s">
         <v>96</v>
       </c>
@@ -1848,6 +2010,9 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
       <c r="E54" s="4" t="s">
         <v>96</v>
       </c>
@@ -1868,6 +2033,9 @@
       <c r="B55" t="s">
         <v>8</v>
       </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
       <c r="E55" s="4" t="s">
         <v>96</v>
       </c>
@@ -1888,6 +2056,9 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
       <c r="E56" s="4" t="s">
         <v>96</v>
       </c>
@@ -1908,6 +2079,9 @@
       <c r="B57" t="s">
         <v>8</v>
       </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
       <c r="E57" s="4" t="s">
         <v>96</v>
       </c>
@@ -1928,6 +2102,9 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
       <c r="E58" s="4" t="s">
         <v>96</v>
       </c>
@@ -1948,6 +2125,9 @@
       <c r="B59" t="s">
         <v>8</v>
       </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
       <c r="E59" s="4" t="s">
         <v>96</v>
       </c>
@@ -1968,6 +2148,9 @@
       <c r="B60" t="s">
         <v>8</v>
       </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
       <c r="E60" s="4" t="s">
         <v>96</v>
       </c>
@@ -1988,6 +2171,9 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
       <c r="E61" s="4" t="s">
         <v>96</v>
       </c>
@@ -2008,6 +2194,9 @@
       <c r="B62" t="s">
         <v>8</v>
       </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
       <c r="E62" s="4" t="s">
         <v>96</v>
       </c>
@@ -2028,6 +2217,9 @@
       <c r="B63" t="s">
         <v>8</v>
       </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
       <c r="E63" s="4" t="s">
         <v>96</v>
       </c>
@@ -2048,6 +2240,9 @@
       <c r="B64" t="s">
         <v>8</v>
       </c>
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
       <c r="E64" s="4" t="s">
         <v>96</v>
       </c>
@@ -2068,6 +2263,9 @@
       <c r="B65" t="s">
         <v>8</v>
       </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
       <c r="E65" s="4" t="s">
         <v>96</v>
       </c>
@@ -2087,6 +2285,9 @@
       </c>
       <c r="B66" t="s">
         <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>105</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>96</v>

--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7ADA1E-A0BD-F340-B8F1-1402D1CC3B3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAEDCA0-6F5B-1441-B71A-A1F9874C51FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{0C6A2047-03AD-2042-9C84-CCF208A16D4A}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <t>Half Yearly</t>
   </si>
   <si>
-    <t>SMS_Group_1</t>
-  </si>
-  <si>
-    <t>SMS_Group_1, TCM_Group_1</t>
+    <t>SMS_GROUP_1</t>
+  </si>
+  <si>
+    <t>SMS_GROUP_1, TCM_GROUP_1</t>
   </si>
 </sst>
 </file>
@@ -760,15 +760,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A086774F-C4BD-664E-9F53-E53152FD5B93}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>

--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa730101\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7000A04-BD0F-C64A-B40B-C172AB4D70CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="169">
   <si>
     <t>Machine Name</t>
   </si>
@@ -427,9 +422,6 @@
   </si>
   <si>
     <t>hpm</t>
-  </si>
-  <si>
-    <t>hpm_group_1</t>
   </si>
   <si>
     <t>hydraullic press machine</t>
@@ -546,7 +538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -946,28 +938,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="20.875" customWidth="1"/>
-    <col min="10" max="14" width="22.25" customWidth="1"/>
-    <col min="15" max="18" width="20.875" customWidth="1"/>
-    <col min="22" max="22" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.375" customWidth="1"/>
-    <col min="24" max="24" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="14" width="22.1640625" customWidth="1"/>
+    <col min="15" max="18" width="20.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,22 +997,22 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -1044,7 +1036,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1074,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1188,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1348,7 +1340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1386,7 +1378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1424,7 +1416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1462,7 +1454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1538,7 +1530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1614,7 +1606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1690,7 +1682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1728,7 +1720,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1766,7 +1758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1804,7 +1796,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1842,7 +1834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1880,7 +1872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1918,7 +1910,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1956,7 +1948,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1994,7 +1986,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2014,16 +2006,16 @@
         <v>130</v>
       </c>
       <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
         <v>132</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>133</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>134</v>
-      </c>
-      <c r="J27" t="s">
-        <v>135</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>89</v>
@@ -2038,7 +2030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2058,16 +2050,16 @@
         <v>130</v>
       </c>
       <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
         <v>132</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>133</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>134</v>
-      </c>
-      <c r="J28" t="s">
-        <v>135</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>89</v>
@@ -2082,7 +2074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2102,16 +2094,16 @@
         <v>130</v>
       </c>
       <c r="G29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" t="s">
         <v>132</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>133</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>134</v>
-      </c>
-      <c r="J29" t="s">
-        <v>135</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>89</v>
@@ -2126,7 +2118,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2146,16 +2138,16 @@
         <v>129</v>
       </c>
       <c r="G30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" t="s">
         <v>132</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>133</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>134</v>
-      </c>
-      <c r="J30" t="s">
-        <v>135</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>89</v>
@@ -2170,7 +2162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2190,16 +2182,16 @@
         <v>129</v>
       </c>
       <c r="G31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" t="s">
         <v>132</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>133</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>134</v>
-      </c>
-      <c r="J31" t="s">
-        <v>135</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>89</v>
@@ -2214,7 +2206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2234,16 +2226,16 @@
         <v>129</v>
       </c>
       <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
         <v>132</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>133</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>134</v>
-      </c>
-      <c r="J32" t="s">
-        <v>135</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>89</v>
@@ -2258,7 +2250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2278,16 +2270,16 @@
         <v>129</v>
       </c>
       <c r="G33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" t="s">
         <v>132</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>133</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>134</v>
-      </c>
-      <c r="J33" t="s">
-        <v>135</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>89</v>
@@ -2302,7 +2294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2322,16 +2314,16 @@
         <v>129</v>
       </c>
       <c r="G34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" t="s">
         <v>132</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>133</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>134</v>
-      </c>
-      <c r="J34" t="s">
-        <v>135</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>89</v>
@@ -2346,7 +2338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2384,7 +2376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2422,7 +2414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2460,7 +2452,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2498,7 +2490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2536,7 +2528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2544,28 +2536,28 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="s">
         <v>137</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>138</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>139</v>
       </c>
-      <c r="F40" t="s">
-        <v>140</v>
-      </c>
       <c r="G40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" t="s">
         <v>132</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>133</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>134</v>
-      </c>
-      <c r="J40" t="s">
-        <v>135</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>89</v>
@@ -2580,7 +2572,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2588,28 +2580,28 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
         <v>137</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>138</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>139</v>
       </c>
-      <c r="F41" t="s">
-        <v>140</v>
-      </c>
       <c r="G41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" t="s">
         <v>132</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>133</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>134</v>
-      </c>
-      <c r="J41" t="s">
-        <v>135</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>89</v>
@@ -2624,7 +2616,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2632,28 +2624,28 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
         <v>137</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>138</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>139</v>
       </c>
-      <c r="F42" t="s">
-        <v>140</v>
-      </c>
       <c r="G42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" t="s">
         <v>132</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>133</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>134</v>
-      </c>
-      <c r="J42" t="s">
-        <v>135</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>89</v>
@@ -2668,7 +2660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2676,28 +2668,28 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
         <v>137</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>138</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>139</v>
       </c>
-      <c r="F43" t="s">
-        <v>140</v>
-      </c>
       <c r="G43" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" t="s">
         <v>132</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>133</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>134</v>
-      </c>
-      <c r="J43" t="s">
-        <v>135</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>89</v>
@@ -2712,7 +2704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2720,28 +2712,28 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s">
         <v>137</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>138</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>139</v>
       </c>
-      <c r="F44" t="s">
-        <v>140</v>
-      </c>
       <c r="G44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" t="s">
         <v>132</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>133</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>134</v>
-      </c>
-      <c r="J44" t="s">
-        <v>135</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>89</v>
@@ -2756,7 +2748,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2764,28 +2756,28 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
         <v>137</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>138</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>139</v>
       </c>
-      <c r="F45" t="s">
-        <v>140</v>
-      </c>
       <c r="G45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" t="s">
         <v>132</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>133</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>134</v>
-      </c>
-      <c r="J45" t="s">
-        <v>135</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>89</v>
@@ -2800,7 +2792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -2808,22 +2800,22 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
         <v>141</v>
       </c>
-      <c r="D46" t="s">
-        <v>142</v>
-      </c>
       <c r="E46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" t="s">
         <v>132</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>133</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>134</v>
-      </c>
-      <c r="H46" t="s">
-        <v>135</v>
       </c>
       <c r="I46" t="s">
         <v>117</v>
@@ -2835,13 +2827,13 @@
         <v>120</v>
       </c>
       <c r="L46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O46" t="s">
         <v>119</v>
@@ -2850,10 +2842,10 @@
         <v>125</v>
       </c>
       <c r="Q46" t="s">
+        <v>133</v>
+      </c>
+      <c r="R46" t="s">
         <v>134</v>
-      </c>
-      <c r="R46" t="s">
-        <v>135</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>89</v>
@@ -2868,7 +2860,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2876,22 +2868,22 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
         <v>141</v>
       </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
       <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" t="s">
         <v>132</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>133</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>134</v>
-      </c>
-      <c r="H47" t="s">
-        <v>135</v>
       </c>
       <c r="I47" t="s">
         <v>117</v>
@@ -2903,13 +2895,13 @@
         <v>120</v>
       </c>
       <c r="L47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O47" t="s">
         <v>119</v>
@@ -2918,10 +2910,10 @@
         <v>125</v>
       </c>
       <c r="Q47" t="s">
+        <v>133</v>
+      </c>
+      <c r="R47" t="s">
         <v>134</v>
-      </c>
-      <c r="R47" t="s">
-        <v>135</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>89</v>
@@ -2936,7 +2928,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2944,10 +2936,10 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
         <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>135</v>
       </c>
       <c r="E48" t="s">
         <v>120</v>
@@ -2956,10 +2948,10 @@
         <v>126</v>
       </c>
       <c r="G48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" t="s">
         <v>141</v>
-      </c>
-      <c r="H48" t="s">
-        <v>142</v>
       </c>
       <c r="I48" t="s">
         <v>117</v>
@@ -2971,13 +2963,13 @@
         <v>120</v>
       </c>
       <c r="L48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O48" t="s">
         <v>119</v>
@@ -2986,10 +2978,10 @@
         <v>125</v>
       </c>
       <c r="Q48" t="s">
+        <v>133</v>
+      </c>
+      <c r="R48" t="s">
         <v>134</v>
-      </c>
-      <c r="R48" t="s">
-        <v>135</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>95</v>
@@ -3004,7 +2996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -3012,10 +3004,10 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
         <v>134</v>
-      </c>
-      <c r="D49" t="s">
-        <v>135</v>
       </c>
       <c r="E49" t="s">
         <v>120</v>
@@ -3024,10 +3016,10 @@
         <v>126</v>
       </c>
       <c r="G49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" t="s">
         <v>141</v>
-      </c>
-      <c r="H49" t="s">
-        <v>142</v>
       </c>
       <c r="I49" t="s">
         <v>117</v>
@@ -3039,13 +3031,13 @@
         <v>120</v>
       </c>
       <c r="L49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" t="s">
         <v>119</v>
@@ -3054,10 +3046,10 @@
         <v>125</v>
       </c>
       <c r="Q49" t="s">
+        <v>133</v>
+      </c>
+      <c r="R49" t="s">
         <v>134</v>
-      </c>
-      <c r="R49" t="s">
-        <v>135</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>95</v>
@@ -3072,7 +3064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -3080,10 +3072,10 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
         <v>134</v>
-      </c>
-      <c r="D50" t="s">
-        <v>135</v>
       </c>
       <c r="E50" t="s">
         <v>120</v>
@@ -3092,10 +3084,10 @@
         <v>126</v>
       </c>
       <c r="G50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" t="s">
         <v>141</v>
-      </c>
-      <c r="H50" t="s">
-        <v>142</v>
       </c>
       <c r="I50" t="s">
         <v>117</v>
@@ -3107,13 +3099,13 @@
         <v>120</v>
       </c>
       <c r="L50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" t="s">
         <v>119</v>
@@ -3122,10 +3114,10 @@
         <v>125</v>
       </c>
       <c r="Q50" t="s">
+        <v>133</v>
+      </c>
+      <c r="R50" t="s">
         <v>134</v>
-      </c>
-      <c r="R50" t="s">
-        <v>135</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>95</v>
@@ -3140,7 +3132,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -3148,10 +3140,10 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
         <v>134</v>
-      </c>
-      <c r="D51" t="s">
-        <v>135</v>
       </c>
       <c r="E51" t="s">
         <v>120</v>
@@ -3160,10 +3152,10 @@
         <v>126</v>
       </c>
       <c r="G51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" t="s">
         <v>141</v>
-      </c>
-      <c r="H51" t="s">
-        <v>142</v>
       </c>
       <c r="I51" t="s">
         <v>117</v>
@@ -3175,13 +3167,13 @@
         <v>120</v>
       </c>
       <c r="L51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" t="s">
         <v>119</v>
@@ -3190,10 +3182,10 @@
         <v>125</v>
       </c>
       <c r="Q51" t="s">
+        <v>133</v>
+      </c>
+      <c r="R51" t="s">
         <v>134</v>
-      </c>
-      <c r="R51" t="s">
-        <v>135</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>95</v>
@@ -3208,7 +3200,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -3216,22 +3208,22 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
         <v>137</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>138</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>139</v>
-      </c>
-      <c r="H52" t="s">
-        <v>140</v>
       </c>
       <c r="I52" t="s">
         <v>117</v>
@@ -3243,13 +3235,13 @@
         <v>120</v>
       </c>
       <c r="L52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" t="s">
         <v>119</v>
@@ -3258,10 +3250,10 @@
         <v>125</v>
       </c>
       <c r="Q52" t="s">
+        <v>133</v>
+      </c>
+      <c r="R52" t="s">
         <v>134</v>
-      </c>
-      <c r="R52" t="s">
-        <v>135</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>95</v>
@@ -3276,7 +3268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -3284,22 +3276,22 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" t="s">
         <v>137</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>138</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>139</v>
-      </c>
-      <c r="H53" t="s">
-        <v>140</v>
       </c>
       <c r="I53" t="s">
         <v>117</v>
@@ -3311,13 +3303,13 @@
         <v>120</v>
       </c>
       <c r="L53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" t="s">
         <v>119</v>
@@ -3326,10 +3318,10 @@
         <v>125</v>
       </c>
       <c r="Q53" t="s">
+        <v>133</v>
+      </c>
+      <c r="R53" t="s">
         <v>134</v>
-      </c>
-      <c r="R53" t="s">
-        <v>135</v>
       </c>
       <c r="T53" s="4" t="s">
         <v>95</v>
@@ -3344,7 +3336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -3352,22 +3344,22 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
         <v>137</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>138</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>139</v>
-      </c>
-      <c r="H54" t="s">
-        <v>140</v>
       </c>
       <c r="I54" t="s">
         <v>117</v>
@@ -3379,13 +3371,13 @@
         <v>120</v>
       </c>
       <c r="L54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" t="s">
         <v>119</v>
@@ -3394,10 +3386,10 @@
         <v>125</v>
       </c>
       <c r="Q54" t="s">
+        <v>133</v>
+      </c>
+      <c r="R54" t="s">
         <v>134</v>
-      </c>
-      <c r="R54" t="s">
-        <v>135</v>
       </c>
       <c r="T54" s="4" t="s">
         <v>95</v>
@@ -3412,7 +3404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -3420,22 +3412,22 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s">
         <v>137</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>138</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>139</v>
-      </c>
-      <c r="H55" t="s">
-        <v>140</v>
       </c>
       <c r="I55" t="s">
         <v>117</v>
@@ -3447,13 +3439,13 @@
         <v>120</v>
       </c>
       <c r="L55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O55" t="s">
         <v>119</v>
@@ -3462,10 +3454,10 @@
         <v>125</v>
       </c>
       <c r="Q55" t="s">
+        <v>133</v>
+      </c>
+      <c r="R55" t="s">
         <v>134</v>
-      </c>
-      <c r="R55" t="s">
-        <v>135</v>
       </c>
       <c r="T55" s="4" t="s">
         <v>95</v>
@@ -3480,7 +3472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3488,22 +3480,22 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
         <v>137</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>138</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>139</v>
-      </c>
-      <c r="H56" t="s">
-        <v>140</v>
       </c>
       <c r="I56" t="s">
         <v>117</v>
@@ -3515,13 +3507,13 @@
         <v>120</v>
       </c>
       <c r="L56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O56" t="s">
         <v>119</v>
@@ -3530,10 +3522,10 @@
         <v>125</v>
       </c>
       <c r="Q56" t="s">
+        <v>133</v>
+      </c>
+      <c r="R56" t="s">
         <v>134</v>
-      </c>
-      <c r="R56" t="s">
-        <v>135</v>
       </c>
       <c r="T56" s="4" t="s">
         <v>95</v>
@@ -3548,7 +3540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -3556,16 +3548,16 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
         <v>133</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>134</v>
-      </c>
-      <c r="F57" t="s">
-        <v>135</v>
       </c>
       <c r="T57" s="4" t="s">
         <v>95</v>
@@ -3580,7 +3572,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -3588,16 +3580,16 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
         <v>133</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>134</v>
-      </c>
-      <c r="F58" t="s">
-        <v>135</v>
       </c>
       <c r="G58" t="s">
         <v>128</v>
@@ -3624,7 +3616,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -3632,22 +3624,22 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" t="s">
         <v>137</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>138</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>139</v>
-      </c>
-      <c r="H59" t="s">
-        <v>140</v>
       </c>
       <c r="I59" t="s">
         <v>117</v>
@@ -3659,13 +3651,13 @@
         <v>120</v>
       </c>
       <c r="L59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O59" t="s">
         <v>119</v>
@@ -3674,10 +3666,10 @@
         <v>125</v>
       </c>
       <c r="Q59" t="s">
+        <v>133</v>
+      </c>
+      <c r="R59" t="s">
         <v>134</v>
-      </c>
-      <c r="R59" t="s">
-        <v>135</v>
       </c>
       <c r="T59" s="4" t="s">
         <v>95</v>
@@ -3692,7 +3684,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -3712,16 +3704,16 @@
         <v>129</v>
       </c>
       <c r="G60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" t="s">
         <v>134</v>
       </c>
-      <c r="H60" t="s">
-        <v>135</v>
-      </c>
       <c r="I60" t="s">
+        <v>144</v>
+      </c>
+      <c r="J60" t="s">
         <v>132</v>
-      </c>
-      <c r="J60" t="s">
-        <v>133</v>
       </c>
       <c r="T60" s="4" t="s">
         <v>95</v>
@@ -3736,7 +3728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -3756,16 +3748,16 @@
         <v>129</v>
       </c>
       <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
         <v>134</v>
       </c>
-      <c r="H61" t="s">
-        <v>135</v>
-      </c>
       <c r="I61" t="s">
+        <v>144</v>
+      </c>
+      <c r="J61" t="s">
         <v>132</v>
-      </c>
-      <c r="J61" t="s">
-        <v>133</v>
       </c>
       <c r="T61" s="4" t="s">
         <v>95</v>
@@ -3780,7 +3772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3788,28 +3780,28 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
         <v>139</v>
       </c>
-      <c r="D62" t="s">
-        <v>140</v>
-      </c>
       <c r="E62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" t="s">
         <v>137</v>
       </c>
-      <c r="F62" t="s">
-        <v>138</v>
-      </c>
       <c r="G62" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" t="s">
         <v>132</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>133</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>134</v>
-      </c>
-      <c r="J62" t="s">
-        <v>135</v>
       </c>
       <c r="T62" s="4" t="s">
         <v>95</v>
@@ -3824,7 +3816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -3832,28 +3824,28 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
         <v>139</v>
       </c>
-      <c r="D63" t="s">
-        <v>140</v>
-      </c>
       <c r="E63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
         <v>137</v>
       </c>
-      <c r="F63" t="s">
-        <v>138</v>
-      </c>
       <c r="G63" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" t="s">
         <v>132</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>133</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>134</v>
-      </c>
-      <c r="J63" t="s">
-        <v>135</v>
       </c>
       <c r="T63" s="4" t="s">
         <v>95</v>
@@ -3868,7 +3860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -3876,22 +3868,22 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" t="s">
         <v>134</v>
       </c>
-      <c r="F64" t="s">
-        <v>135</v>
-      </c>
       <c r="G64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" t="s">
         <v>132</v>
-      </c>
-      <c r="H64" t="s">
-        <v>133</v>
       </c>
       <c r="T64" s="4" t="s">
         <v>95</v>
@@ -3906,7 +3898,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -3914,22 +3906,22 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" t="s">
         <v>134</v>
       </c>
-      <c r="F65" t="s">
-        <v>135</v>
-      </c>
       <c r="G65" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" t="s">
         <v>132</v>
-      </c>
-      <c r="H65" t="s">
-        <v>133</v>
       </c>
       <c r="T65" s="4" t="s">
         <v>95</v>
@@ -3944,7 +3936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -3952,22 +3944,22 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
         <v>137</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>138</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>139</v>
-      </c>
-      <c r="H66" t="s">
-        <v>140</v>
       </c>
       <c r="I66" t="s">
         <v>117</v>
@@ -3979,13 +3971,13 @@
         <v>120</v>
       </c>
       <c r="L66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O66" t="s">
         <v>119</v>
@@ -4013,96 +4005,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C19:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I26" t="s">
+      <c r="F27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7000A04-BD0F-C64A-B40B-C172AB4D70CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F20E3C-B61D-1B4D-86A5-B7B948089FCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="168">
   <si>
     <t>Machine Name</t>
   </si>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>Hydraulic Press</t>
-  </si>
-  <si>
-    <t>Six - Months</t>
   </si>
   <si>
     <t>Sheet Bending Machine</t>
@@ -941,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="Q48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W57" sqref="W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,52 +964,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -1044,22 +1041,22 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>79</v>
@@ -1082,22 +1079,22 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>79</v>
@@ -1120,22 +1117,22 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>79</v>
@@ -1158,22 +1155,22 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
         <v>104</v>
       </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>79</v>
@@ -1196,22 +1193,22 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
         <v>104</v>
       </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>79</v>
@@ -1234,22 +1231,22 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
         <v>104</v>
       </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" t="s">
-        <v>105</v>
-      </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>79</v>
@@ -1272,22 +1269,22 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>79</v>
@@ -1310,22 +1307,22 @@
         <v>77</v>
       </c>
       <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" t="s">
-        <v>105</v>
-      </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>79</v>
@@ -1348,22 +1345,22 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
         <v>104</v>
       </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>79</v>
@@ -1386,22 +1383,22 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
         <v>104</v>
       </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>79</v>
@@ -1424,22 +1421,22 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>79</v>
@@ -1462,22 +1459,22 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
         <v>111</v>
       </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
       <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
         <v>104</v>
       </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>79</v>
@@ -1500,22 +1497,22 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
         <v>111</v>
       </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
       <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
         <v>104</v>
       </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" t="s">
-        <v>105</v>
-      </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>79</v>
@@ -1538,22 +1535,22 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
         <v>111</v>
       </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
       <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
         <v>104</v>
       </c>
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>79</v>
@@ -1576,22 +1573,22 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
         <v>111</v>
       </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
       <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
         <v>104</v>
       </c>
-      <c r="F16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>79</v>
@@ -1614,22 +1611,22 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
       <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
         <v>104</v>
       </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>79</v>
@@ -1652,22 +1649,22 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
         <v>111</v>
       </c>
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
       <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
         <v>104</v>
       </c>
-      <c r="F18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" t="s">
-        <v>105</v>
-      </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>79</v>
@@ -1690,22 +1687,22 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
         <v>104</v>
       </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" t="s">
-        <v>105</v>
-      </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>79</v>
@@ -1728,22 +1725,22 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
         <v>117</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>118</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" t="s">
-        <v>126</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>85</v>
@@ -1766,22 +1763,22 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>118</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>125</v>
-      </c>
-      <c r="G21" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" t="s">
-        <v>126</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>85</v>
@@ -1804,22 +1801,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
         <v>117</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>118</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" t="s">
-        <v>126</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>85</v>
@@ -1842,22 +1839,22 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
         <v>117</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>118</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>125</v>
-      </c>
-      <c r="G23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" t="s">
-        <v>126</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>85</v>
@@ -1880,22 +1877,22 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
         <v>119</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>125</v>
-      </c>
-      <c r="E24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" t="s">
-        <v>126</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>85</v>
@@ -1918,22 +1915,22 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" t="s">
         <v>119</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H25" t="s">
         <v>125</v>
-      </c>
-      <c r="E25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" t="s">
-        <v>126</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>85</v>
@@ -1956,22 +1953,22 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>125</v>
-      </c>
-      <c r="E26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" t="s">
-        <v>126</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>85</v>
@@ -1994,28 +1991,28 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>129</v>
       </c>
-      <c r="E27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" t="s">
         <v>132</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>133</v>
-      </c>
-      <c r="J27" t="s">
-        <v>134</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>89</v>
@@ -2038,28 +2035,28 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
         <v>127</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>129</v>
       </c>
-      <c r="E28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" t="s">
         <v>132</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>133</v>
-      </c>
-      <c r="J28" t="s">
-        <v>134</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>89</v>
@@ -2082,28 +2079,28 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
         <v>127</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>129</v>
       </c>
-      <c r="E29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" t="s">
         <v>132</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>133</v>
-      </c>
-      <c r="J29" t="s">
-        <v>134</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>89</v>
@@ -2126,28 +2123,28 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
         <v>128</v>
       </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" t="s">
         <v>132</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>133</v>
-      </c>
-      <c r="J30" t="s">
-        <v>134</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>89</v>
@@ -2170,28 +2167,28 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
         <v>128</v>
       </c>
-      <c r="D31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" t="s">
-        <v>129</v>
-      </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" t="s">
         <v>132</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>133</v>
-      </c>
-      <c r="J31" t="s">
-        <v>134</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>89</v>
@@ -2214,28 +2211,28 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="D32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" t="s">
-        <v>129</v>
-      </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" t="s">
         <v>132</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>133</v>
-      </c>
-      <c r="J32" t="s">
-        <v>134</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>89</v>
@@ -2258,28 +2255,28 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
         <v>128</v>
       </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" t="s">
-        <v>129</v>
-      </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" t="s">
         <v>132</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>133</v>
-      </c>
-      <c r="J33" t="s">
-        <v>134</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>89</v>
@@ -2302,28 +2299,28 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" t="s">
         <v>128</v>
       </c>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" t="s">
-        <v>129</v>
-      </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" t="s">
         <v>132</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>133</v>
-      </c>
-      <c r="J34" t="s">
-        <v>134</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>89</v>
@@ -2346,22 +2343,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" t="s">
         <v>117</v>
-      </c>
-      <c r="H35" t="s">
-        <v>118</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>89</v>
@@ -2384,22 +2381,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" t="s">
         <v>117</v>
-      </c>
-      <c r="H36" t="s">
-        <v>118</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>89</v>
@@ -2422,22 +2419,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" t="s">
         <v>117</v>
-      </c>
-      <c r="H37" t="s">
-        <v>118</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>89</v>
@@ -2460,22 +2457,22 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" t="s">
         <v>117</v>
-      </c>
-      <c r="H38" t="s">
-        <v>118</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>89</v>
@@ -2498,22 +2495,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" t="s">
         <v>117</v>
-      </c>
-      <c r="H39" t="s">
-        <v>118</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>89</v>
@@ -2536,28 +2533,28 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
         <v>136</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>137</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>138</v>
       </c>
-      <c r="F40" t="s">
-        <v>139</v>
-      </c>
       <c r="G40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I40" t="s">
         <v>132</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>133</v>
-      </c>
-      <c r="J40" t="s">
-        <v>134</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>89</v>
@@ -2580,28 +2577,28 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
         <v>136</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>137</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>138</v>
       </c>
-      <c r="F41" t="s">
-        <v>139</v>
-      </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" t="s">
         <v>132</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>133</v>
-      </c>
-      <c r="J41" t="s">
-        <v>134</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>89</v>
@@ -2624,28 +2621,28 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>137</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>138</v>
       </c>
-      <c r="F42" t="s">
-        <v>139</v>
-      </c>
       <c r="G42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" t="s">
         <v>132</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>133</v>
-      </c>
-      <c r="J42" t="s">
-        <v>134</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>89</v>
@@ -2668,28 +2665,28 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s">
         <v>136</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>137</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>138</v>
       </c>
-      <c r="F43" t="s">
-        <v>139</v>
-      </c>
       <c r="G43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H43" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" t="s">
         <v>132</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>133</v>
-      </c>
-      <c r="J43" t="s">
-        <v>134</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>89</v>
@@ -2712,28 +2709,28 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
         <v>136</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>137</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>138</v>
       </c>
-      <c r="F44" t="s">
-        <v>139</v>
-      </c>
       <c r="G44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H44" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" t="s">
         <v>132</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>133</v>
-      </c>
-      <c r="J44" t="s">
-        <v>134</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>89</v>
@@ -2756,28 +2753,28 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
         <v>136</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>137</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>138</v>
       </c>
-      <c r="F45" t="s">
-        <v>139</v>
-      </c>
       <c r="G45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" t="s">
         <v>132</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>133</v>
-      </c>
-      <c r="J45" t="s">
-        <v>134</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>89</v>
@@ -2800,52 +2797,52 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
         <v>140</v>
       </c>
-      <c r="D46" t="s">
-        <v>141</v>
-      </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" t="s">
         <v>132</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>133</v>
       </c>
-      <c r="H46" t="s">
-        <v>134</v>
-      </c>
       <c r="I46" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" t="s">
         <v>117</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
+        <v>119</v>
+      </c>
+      <c r="L46" t="s">
+        <v>151</v>
+      </c>
+      <c r="M46" t="s">
+        <v>139</v>
+      </c>
+      <c r="N46" t="s">
+        <v>153</v>
+      </c>
+      <c r="O46" t="s">
         <v>118</v>
       </c>
-      <c r="K46" t="s">
-        <v>120</v>
-      </c>
-      <c r="L46" t="s">
-        <v>152</v>
-      </c>
-      <c r="M46" t="s">
-        <v>140</v>
-      </c>
-      <c r="N46" t="s">
-        <v>154</v>
-      </c>
-      <c r="O46" t="s">
-        <v>119</v>
-      </c>
       <c r="P46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q46" t="s">
+        <v>132</v>
+      </c>
+      <c r="R46" t="s">
         <v>133</v>
-      </c>
-      <c r="R46" t="s">
-        <v>134</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>89</v>
@@ -2868,52 +2865,52 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
         <v>140</v>
       </c>
-      <c r="D47" t="s">
-        <v>141</v>
-      </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" t="s">
         <v>132</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>133</v>
       </c>
-      <c r="H47" t="s">
-        <v>134</v>
-      </c>
       <c r="I47" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" t="s">
         <v>117</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
+        <v>119</v>
+      </c>
+      <c r="L47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M47" t="s">
+        <v>139</v>
+      </c>
+      <c r="N47" t="s">
+        <v>153</v>
+      </c>
+      <c r="O47" t="s">
         <v>118</v>
       </c>
-      <c r="K47" t="s">
-        <v>120</v>
-      </c>
-      <c r="L47" t="s">
-        <v>152</v>
-      </c>
-      <c r="M47" t="s">
-        <v>140</v>
-      </c>
-      <c r="N47" t="s">
-        <v>154</v>
-      </c>
-      <c r="O47" t="s">
-        <v>119</v>
-      </c>
       <c r="P47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q47" t="s">
+        <v>132</v>
+      </c>
+      <c r="R47" t="s">
         <v>133</v>
-      </c>
-      <c r="R47" t="s">
-        <v>134</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>89</v>
@@ -2936,52 +2933,52 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
         <v>133</v>
       </c>
-      <c r="D48" t="s">
-        <v>134</v>
-      </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" t="s">
         <v>140</v>
       </c>
-      <c r="H48" t="s">
-        <v>141</v>
-      </c>
       <c r="I48" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" t="s">
         <v>117</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
+        <v>119</v>
+      </c>
+      <c r="L48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N48" t="s">
+        <v>153</v>
+      </c>
+      <c r="O48" t="s">
         <v>118</v>
       </c>
-      <c r="K48" t="s">
-        <v>120</v>
-      </c>
-      <c r="L48" t="s">
-        <v>152</v>
-      </c>
-      <c r="M48" t="s">
-        <v>140</v>
-      </c>
-      <c r="N48" t="s">
-        <v>154</v>
-      </c>
-      <c r="O48" t="s">
-        <v>119</v>
-      </c>
       <c r="P48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q48" t="s">
+        <v>132</v>
+      </c>
+      <c r="R48" t="s">
         <v>133</v>
-      </c>
-      <c r="R48" t="s">
-        <v>134</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>95</v>
@@ -3004,52 +3001,52 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
         <v>133</v>
       </c>
-      <c r="D49" t="s">
-        <v>134</v>
-      </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" t="s">
         <v>140</v>
       </c>
-      <c r="H49" t="s">
-        <v>141</v>
-      </c>
       <c r="I49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" t="s">
         <v>117</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
+        <v>119</v>
+      </c>
+      <c r="L49" t="s">
+        <v>151</v>
+      </c>
+      <c r="M49" t="s">
+        <v>139</v>
+      </c>
+      <c r="N49" t="s">
+        <v>153</v>
+      </c>
+      <c r="O49" t="s">
         <v>118</v>
       </c>
-      <c r="K49" t="s">
-        <v>120</v>
-      </c>
-      <c r="L49" t="s">
-        <v>152</v>
-      </c>
-      <c r="M49" t="s">
-        <v>140</v>
-      </c>
-      <c r="N49" t="s">
-        <v>154</v>
-      </c>
-      <c r="O49" t="s">
-        <v>119</v>
-      </c>
       <c r="P49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q49" t="s">
+        <v>132</v>
+      </c>
+      <c r="R49" t="s">
         <v>133</v>
-      </c>
-      <c r="R49" t="s">
-        <v>134</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>95</v>
@@ -3072,52 +3069,52 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
         <v>133</v>
       </c>
-      <c r="D50" t="s">
-        <v>134</v>
-      </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" t="s">
         <v>140</v>
       </c>
-      <c r="H50" t="s">
-        <v>141</v>
-      </c>
       <c r="I50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" t="s">
         <v>117</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
+        <v>119</v>
+      </c>
+      <c r="L50" t="s">
+        <v>151</v>
+      </c>
+      <c r="M50" t="s">
+        <v>139</v>
+      </c>
+      <c r="N50" t="s">
+        <v>153</v>
+      </c>
+      <c r="O50" t="s">
         <v>118</v>
       </c>
-      <c r="K50" t="s">
-        <v>120</v>
-      </c>
-      <c r="L50" t="s">
-        <v>152</v>
-      </c>
-      <c r="M50" t="s">
-        <v>140</v>
-      </c>
-      <c r="N50" t="s">
-        <v>154</v>
-      </c>
-      <c r="O50" t="s">
-        <v>119</v>
-      </c>
       <c r="P50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q50" t="s">
+        <v>132</v>
+      </c>
+      <c r="R50" t="s">
         <v>133</v>
-      </c>
-      <c r="R50" t="s">
-        <v>134</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>95</v>
@@ -3140,52 +3137,52 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
         <v>133</v>
       </c>
-      <c r="D51" t="s">
-        <v>134</v>
-      </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" t="s">
         <v>140</v>
       </c>
-      <c r="H51" t="s">
-        <v>141</v>
-      </c>
       <c r="I51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" t="s">
         <v>117</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
+        <v>119</v>
+      </c>
+      <c r="L51" t="s">
+        <v>151</v>
+      </c>
+      <c r="M51" t="s">
+        <v>139</v>
+      </c>
+      <c r="N51" t="s">
+        <v>153</v>
+      </c>
+      <c r="O51" t="s">
         <v>118</v>
       </c>
-      <c r="K51" t="s">
-        <v>120</v>
-      </c>
-      <c r="L51" t="s">
-        <v>152</v>
-      </c>
-      <c r="M51" t="s">
-        <v>140</v>
-      </c>
-      <c r="N51" t="s">
-        <v>154</v>
-      </c>
-      <c r="O51" t="s">
-        <v>119</v>
-      </c>
       <c r="P51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R51" t="s">
         <v>133</v>
-      </c>
-      <c r="R51" t="s">
-        <v>134</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>95</v>
@@ -3208,52 +3205,52 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" t="s">
+        <v>117</v>
+      </c>
+      <c r="K52" t="s">
+        <v>119</v>
+      </c>
+      <c r="L52" t="s">
+        <v>151</v>
+      </c>
+      <c r="M52" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" t="s">
+        <v>153</v>
+      </c>
+      <c r="O52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q52" t="s">
         <v>132</v>
       </c>
-      <c r="E52" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" t="s">
-        <v>139</v>
-      </c>
-      <c r="I52" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" t="s">
-        <v>118</v>
-      </c>
-      <c r="K52" t="s">
-        <v>120</v>
-      </c>
-      <c r="L52" t="s">
-        <v>152</v>
-      </c>
-      <c r="M52" t="s">
-        <v>140</v>
-      </c>
-      <c r="N52" t="s">
-        <v>154</v>
-      </c>
-      <c r="O52" t="s">
-        <v>119</v>
-      </c>
-      <c r="P52" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>133</v>
-      </c>
-      <c r="R52" t="s">
-        <v>134</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>95</v>
@@ -3276,52 +3273,52 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" t="s">
+        <v>138</v>
+      </c>
+      <c r="I53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" t="s">
+        <v>117</v>
+      </c>
+      <c r="K53" t="s">
+        <v>119</v>
+      </c>
+      <c r="L53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M53" t="s">
+        <v>139</v>
+      </c>
+      <c r="N53" t="s">
+        <v>153</v>
+      </c>
+      <c r="O53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P53" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q53" t="s">
         <v>132</v>
       </c>
-      <c r="E53" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" t="s">
-        <v>137</v>
-      </c>
-      <c r="G53" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" t="s">
-        <v>139</v>
-      </c>
-      <c r="I53" t="s">
-        <v>117</v>
-      </c>
-      <c r="J53" t="s">
-        <v>118</v>
-      </c>
-      <c r="K53" t="s">
-        <v>120</v>
-      </c>
-      <c r="L53" t="s">
-        <v>152</v>
-      </c>
-      <c r="M53" t="s">
-        <v>140</v>
-      </c>
-      <c r="N53" t="s">
-        <v>154</v>
-      </c>
-      <c r="O53" t="s">
-        <v>119</v>
-      </c>
-      <c r="P53" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>133</v>
-      </c>
-      <c r="R53" t="s">
-        <v>134</v>
       </c>
       <c r="T53" s="4" t="s">
         <v>95</v>
@@ -3344,52 +3341,52 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" t="s">
+        <v>116</v>
+      </c>
+      <c r="J54" t="s">
+        <v>117</v>
+      </c>
+      <c r="K54" t="s">
+        <v>119</v>
+      </c>
+      <c r="L54" t="s">
+        <v>151</v>
+      </c>
+      <c r="M54" t="s">
+        <v>139</v>
+      </c>
+      <c r="N54" t="s">
+        <v>153</v>
+      </c>
+      <c r="O54" t="s">
+        <v>118</v>
+      </c>
+      <c r="P54" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q54" t="s">
         <v>132</v>
       </c>
-      <c r="E54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" t="s">
-        <v>138</v>
-      </c>
-      <c r="H54" t="s">
-        <v>139</v>
-      </c>
-      <c r="I54" t="s">
-        <v>117</v>
-      </c>
-      <c r="J54" t="s">
-        <v>118</v>
-      </c>
-      <c r="K54" t="s">
-        <v>120</v>
-      </c>
-      <c r="L54" t="s">
-        <v>152</v>
-      </c>
-      <c r="M54" t="s">
-        <v>140</v>
-      </c>
-      <c r="N54" t="s">
-        <v>154</v>
-      </c>
-      <c r="O54" t="s">
-        <v>119</v>
-      </c>
-      <c r="P54" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>133</v>
-      </c>
-      <c r="R54" t="s">
-        <v>134</v>
       </c>
       <c r="T54" s="4" t="s">
         <v>95</v>
@@ -3412,52 +3409,52 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" t="s">
+        <v>117</v>
+      </c>
+      <c r="K55" t="s">
+        <v>119</v>
+      </c>
+      <c r="L55" t="s">
+        <v>151</v>
+      </c>
+      <c r="M55" t="s">
+        <v>139</v>
+      </c>
+      <c r="N55" t="s">
+        <v>153</v>
+      </c>
+      <c r="O55" t="s">
+        <v>118</v>
+      </c>
+      <c r="P55" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q55" t="s">
         <v>132</v>
       </c>
-      <c r="E55" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" t="s">
-        <v>139</v>
-      </c>
-      <c r="I55" t="s">
-        <v>117</v>
-      </c>
-      <c r="J55" t="s">
-        <v>118</v>
-      </c>
-      <c r="K55" t="s">
-        <v>120</v>
-      </c>
-      <c r="L55" t="s">
-        <v>152</v>
-      </c>
-      <c r="M55" t="s">
-        <v>140</v>
-      </c>
-      <c r="N55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O55" t="s">
-        <v>119</v>
-      </c>
-      <c r="P55" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>133</v>
-      </c>
-      <c r="R55" t="s">
-        <v>134</v>
       </c>
       <c r="T55" s="4" t="s">
         <v>95</v>
@@ -3480,58 +3477,58 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" t="s">
+        <v>119</v>
+      </c>
+      <c r="L56" t="s">
+        <v>151</v>
+      </c>
+      <c r="M56" t="s">
+        <v>139</v>
+      </c>
+      <c r="N56" t="s">
+        <v>153</v>
+      </c>
+      <c r="O56" t="s">
+        <v>118</v>
+      </c>
+      <c r="P56" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q56" t="s">
         <v>132</v>
       </c>
-      <c r="E56" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" t="s">
-        <v>138</v>
-      </c>
-      <c r="H56" t="s">
-        <v>139</v>
-      </c>
-      <c r="I56" t="s">
-        <v>117</v>
-      </c>
-      <c r="J56" t="s">
-        <v>118</v>
-      </c>
-      <c r="K56" t="s">
-        <v>120</v>
-      </c>
-      <c r="L56" t="s">
-        <v>152</v>
-      </c>
-      <c r="M56" t="s">
-        <v>140</v>
-      </c>
-      <c r="N56" t="s">
-        <v>154</v>
-      </c>
-      <c r="O56" t="s">
-        <v>119</v>
-      </c>
-      <c r="P56" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>133</v>
-      </c>
-      <c r="R56" t="s">
-        <v>134</v>
       </c>
       <c r="T56" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X56" t="s">
         <v>7</v>
@@ -3548,16 +3545,16 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" t="s">
         <v>132</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>133</v>
-      </c>
-      <c r="F57" t="s">
-        <v>134</v>
       </c>
       <c r="T57" s="4" t="s">
         <v>95</v>
@@ -3580,34 +3577,34 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
         <v>132</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>133</v>
       </c>
-      <c r="F58" t="s">
-        <v>134</v>
-      </c>
       <c r="G58" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" t="s">
+        <v>129</v>
+      </c>
+      <c r="I58" t="s">
+        <v>126</v>
+      </c>
+      <c r="J58" t="s">
         <v>128</v>
-      </c>
-      <c r="H58" t="s">
-        <v>130</v>
-      </c>
-      <c r="I58" t="s">
-        <v>127</v>
-      </c>
-      <c r="J58" t="s">
-        <v>129</v>
       </c>
       <c r="T58" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X58" t="s">
         <v>7</v>
@@ -3624,58 +3621,58 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" t="s">
+        <v>116</v>
+      </c>
+      <c r="J59" t="s">
+        <v>117</v>
+      </c>
+      <c r="K59" t="s">
+        <v>119</v>
+      </c>
+      <c r="L59" t="s">
+        <v>151</v>
+      </c>
+      <c r="M59" t="s">
+        <v>139</v>
+      </c>
+      <c r="N59" t="s">
+        <v>153</v>
+      </c>
+      <c r="O59" t="s">
+        <v>118</v>
+      </c>
+      <c r="P59" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q59" t="s">
         <v>132</v>
       </c>
-      <c r="E59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G59" t="s">
-        <v>138</v>
-      </c>
-      <c r="H59" t="s">
-        <v>139</v>
-      </c>
-      <c r="I59" t="s">
-        <v>117</v>
-      </c>
-      <c r="J59" t="s">
-        <v>118</v>
-      </c>
-      <c r="K59" t="s">
-        <v>120</v>
-      </c>
-      <c r="L59" t="s">
-        <v>152</v>
-      </c>
-      <c r="M59" t="s">
-        <v>140</v>
-      </c>
-      <c r="N59" t="s">
-        <v>154</v>
-      </c>
-      <c r="O59" t="s">
-        <v>119</v>
-      </c>
-      <c r="P59" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>133</v>
-      </c>
-      <c r="R59" t="s">
-        <v>134</v>
       </c>
       <c r="T59" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X59" t="s">
         <v>7</v>
@@ -3692,34 +3689,34 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" t="s">
         <v>128</v>
       </c>
-      <c r="D60" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" t="s">
-        <v>129</v>
-      </c>
       <c r="G60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" t="s">
         <v>133</v>
       </c>
-      <c r="H60" t="s">
-        <v>134</v>
-      </c>
       <c r="I60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T60" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X60" t="s">
         <v>7</v>
@@ -3736,34 +3733,34 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" t="s">
         <v>128</v>
       </c>
-      <c r="D61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" t="s">
-        <v>129</v>
-      </c>
       <c r="G61" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" t="s">
         <v>133</v>
       </c>
-      <c r="H61" t="s">
-        <v>134</v>
-      </c>
       <c r="I61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T61" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X61" t="s">
         <v>7</v>
@@ -3780,40 +3777,40 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
         <v>138</v>
       </c>
-      <c r="D62" t="s">
-        <v>139</v>
-      </c>
       <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
         <v>136</v>
       </c>
-      <c r="F62" t="s">
-        <v>137</v>
-      </c>
       <c r="G62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" t="s">
         <v>132</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>133</v>
-      </c>
-      <c r="J62" t="s">
-        <v>134</v>
       </c>
       <c r="T62" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X62" t="s">
         <v>7</v>
       </c>
       <c r="Y62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
@@ -3824,40 +3821,40 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
         <v>138</v>
       </c>
-      <c r="D63" t="s">
-        <v>139</v>
-      </c>
       <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" t="s">
         <v>136</v>
       </c>
-      <c r="F63" t="s">
-        <v>137</v>
-      </c>
       <c r="G63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H63" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" t="s">
         <v>132</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>133</v>
-      </c>
-      <c r="J63" t="s">
-        <v>134</v>
       </c>
       <c r="T63" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X63" t="s">
         <v>7</v>
       </c>
       <c r="Y63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
@@ -3868,22 +3865,22 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" t="s">
         <v>133</v>
       </c>
-      <c r="F64" t="s">
-        <v>134</v>
-      </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T64" s="4" t="s">
         <v>95</v>
@@ -3895,7 +3892,7 @@
         <v>7</v>
       </c>
       <c r="Y64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
@@ -3906,22 +3903,22 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" t="s">
         <v>133</v>
       </c>
-      <c r="F65" t="s">
-        <v>134</v>
-      </c>
       <c r="G65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T65" s="4" t="s">
         <v>95</v>
@@ -3933,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="Y65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
@@ -3944,58 +3941,58 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" t="s">
         <v>136</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>137</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>138</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
+        <v>116</v>
+      </c>
+      <c r="J66" t="s">
+        <v>117</v>
+      </c>
+      <c r="K66" t="s">
+        <v>119</v>
+      </c>
+      <c r="L66" t="s">
+        <v>151</v>
+      </c>
+      <c r="M66" t="s">
         <v>139</v>
       </c>
-      <c r="I66" t="s">
-        <v>117</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="N66" t="s">
+        <v>153</v>
+      </c>
+      <c r="O66" t="s">
         <v>118</v>
       </c>
-      <c r="K66" t="s">
-        <v>120</v>
-      </c>
-      <c r="L66" t="s">
-        <v>152</v>
-      </c>
-      <c r="M66" t="s">
-        <v>140</v>
-      </c>
-      <c r="N66" t="s">
-        <v>154</v>
-      </c>
-      <c r="O66" t="s">
-        <v>119</v>
-      </c>
       <c r="P66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T66" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X66" t="s">
         <v>7</v>
       </c>
       <c r="Y66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4016,85 +4013,85 @@
   <sheetData>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
+++ b/documents/templates/bulk-upload/11-BulkUploadMachineDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F20E3C-B61D-1B4D-86A5-B7B948089FCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7000A04-BD0F-C64A-B40B-C172AB4D70CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="169">
   <si>
     <t>Machine Name</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>Hydraulic Press</t>
+  </si>
+  <si>
+    <t>Six - Months</t>
   </si>
   <si>
     <t>Sheet Bending Machine</t>
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,52 +967,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -1041,22 +1044,22 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>79</v>
@@ -1079,22 +1082,22 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>79</v>
@@ -1117,22 +1120,22 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
         <v>105</v>
       </c>
-      <c r="E4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
-        <v>104</v>
-      </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>79</v>
@@ -1155,22 +1158,22 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
         <v>105</v>
       </c>
-      <c r="E5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>79</v>
@@ -1193,22 +1196,22 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
         <v>105</v>
       </c>
-      <c r="E6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>79</v>
@@ -1231,22 +1234,22 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
         <v>105</v>
       </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>79</v>
@@ -1269,22 +1272,22 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
         <v>105</v>
       </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>79</v>
@@ -1307,22 +1310,22 @@
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
         <v>105</v>
       </c>
-      <c r="E9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
-        <v>104</v>
-      </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>79</v>
@@ -1345,22 +1348,22 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
         <v>105</v>
       </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>79</v>
@@ -1383,22 +1386,22 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
         <v>105</v>
       </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>104</v>
-      </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>79</v>
@@ -1421,22 +1424,22 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
         <v>105</v>
       </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>104</v>
-      </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>79</v>
@@ -1459,22 +1462,22 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
         <v>105</v>
       </c>
-      <c r="G13" t="s">
-        <v>104</v>
-      </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>79</v>
@@ -1497,22 +1500,22 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
         <v>105</v>
       </c>
-      <c r="G14" t="s">
-        <v>104</v>
-      </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>79</v>
@@ -1535,22 +1538,22 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
         <v>105</v>
       </c>
-      <c r="G15" t="s">
-        <v>104</v>
-      </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>79</v>
@@ -1573,22 +1576,22 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
         <v>105</v>
       </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>79</v>
@@ -1611,22 +1614,22 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="G17" t="s">
-        <v>104</v>
-      </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>79</v>
@@ -1649,22 +1652,22 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
         <v>105</v>
       </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>79</v>
@@ -1687,22 +1690,22 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
         <v>105</v>
       </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" t="s">
-        <v>104</v>
-      </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>79</v>
@@ -1725,22 +1728,22 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>85</v>
@@ -1763,22 +1766,22 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>85</v>
@@ -1801,22 +1804,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>85</v>
@@ -1839,22 +1842,22 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>85</v>
@@ -1877,22 +1880,22 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
         <v>118</v>
       </c>
-      <c r="D24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>85</v>
@@ -1915,22 +1918,22 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
         <v>118</v>
       </c>
-      <c r="D25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" t="s">
-        <v>117</v>
-      </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>85</v>
@@ -1953,22 +1956,22 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" t="s">
         <v>118</v>
       </c>
-      <c r="D26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" t="s">
-        <v>117</v>
-      </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>85</v>
@@ -1991,28 +1994,28 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
         <v>128</v>
       </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>89</v>
@@ -2035,28 +2038,28 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
         <v>128</v>
       </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>89</v>
@@ -2079,28 +2082,28 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
         <v>128</v>
       </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>89</v>
@@ -2123,28 +2126,28 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
         <v>127</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>129</v>
       </c>
-      <c r="E30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>89</v>
@@ -2167,28 +2170,28 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
         <v>127</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
-      </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>89</v>
@@ -2211,28 +2214,28 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>129</v>
       </c>
-      <c r="E32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
-      </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>89</v>
@@ -2255,28 +2258,28 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
         <v>127</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>129</v>
       </c>
-      <c r="E33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
-      </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>89</v>
@@ -2299,28 +2302,28 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
         <v>127</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>129</v>
       </c>
-      <c r="E34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" t="s">
-        <v>128</v>
-      </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>89</v>
@@ -2343,22 +2346,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" t="s">
         <v>119</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>125</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
         <v>118</v>
-      </c>
-      <c r="F35" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" t="s">
-        <v>117</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>89</v>
@@ -2381,22 +2384,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
         <v>119</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>125</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" t="s">
         <v>118</v>
-      </c>
-      <c r="F36" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" t="s">
-        <v>117</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>89</v>
@@ -2419,22 +2422,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
         <v>119</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>125</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" t="s">
         <v>118</v>
-      </c>
-      <c r="F37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" t="s">
-        <v>117</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>89</v>
@@ -2457,22 +2460,22 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
         <v>119</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>125</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" t="s">
         <v>118</v>
-      </c>
-      <c r="F38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" t="s">
-        <v>117</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>89</v>
@@ -2495,22 +2498,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
         <v>119</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>125</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" t="s">
         <v>118</v>
-      </c>
-      <c r="F39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" t="s">
-        <v>117</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>89</v>
@@ -2533,28 +2536,28 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>89</v>
@@ -2577,28 +2580,28 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>89</v>
@@ -2621,28 +2624,28 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>89</v>
@@ -2665,28 +2668,28 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>89</v>
@@ -2709,28 +2712,28 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>89</v>
@@ -2753,28 +2756,28 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>89</v>
@@ -2797,52 +2800,52 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L46" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" t="s">
         <v>140</v>
       </c>
-      <c r="E46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="N46" t="s">
+        <v>154</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q46" t="s">
         <v>133</v>
       </c>
-      <c r="I46" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" t="s">
-        <v>119</v>
-      </c>
-      <c r="L46" t="s">
-        <v>151</v>
-      </c>
-      <c r="M46" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" t="s">
-        <v>153</v>
-      </c>
-      <c r="O46" t="s">
-        <v>118</v>
-      </c>
-      <c r="P46" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>132</v>
-      </c>
       <c r="R46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>89</v>
@@ -2865,52 +2868,52 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" t="s">
+        <v>118</v>
+      </c>
+      <c r="K47" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47" t="s">
+        <v>152</v>
+      </c>
+      <c r="M47" t="s">
         <v>140</v>
       </c>
-      <c r="E47" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="N47" t="s">
+        <v>154</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q47" t="s">
         <v>133</v>
       </c>
-      <c r="I47" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" t="s">
-        <v>117</v>
-      </c>
-      <c r="K47" t="s">
-        <v>119</v>
-      </c>
-      <c r="L47" t="s">
-        <v>151</v>
-      </c>
-      <c r="M47" t="s">
-        <v>139</v>
-      </c>
-      <c r="N47" t="s">
-        <v>153</v>
-      </c>
-      <c r="O47" t="s">
-        <v>118</v>
-      </c>
-      <c r="P47" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>132</v>
-      </c>
       <c r="R47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>89</v>
@@ -2933,52 +2936,52 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" t="s">
+        <v>120</v>
+      </c>
+      <c r="L48" t="s">
+        <v>152</v>
+      </c>
+      <c r="M48" t="s">
+        <v>140</v>
+      </c>
+      <c r="N48" t="s">
+        <v>154</v>
+      </c>
+      <c r="O48" t="s">
+        <v>119</v>
+      </c>
+      <c r="P48" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q48" t="s">
         <v>133</v>
       </c>
-      <c r="E48" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" t="s">
-        <v>116</v>
-      </c>
-      <c r="J48" t="s">
-        <v>117</v>
-      </c>
-      <c r="K48" t="s">
-        <v>119</v>
-      </c>
-      <c r="L48" t="s">
-        <v>151</v>
-      </c>
-      <c r="M48" t="s">
-        <v>139</v>
-      </c>
-      <c r="N48" t="s">
-        <v>153</v>
-      </c>
-      <c r="O48" t="s">
-        <v>118</v>
-      </c>
-      <c r="P48" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>132</v>
-      </c>
       <c r="R48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>95</v>
@@ -3001,52 +3004,52 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" t="s">
+        <v>117</v>
+      </c>
+      <c r="J49" t="s">
+        <v>118</v>
+      </c>
+      <c r="K49" t="s">
+        <v>120</v>
+      </c>
+      <c r="L49" t="s">
+        <v>152</v>
+      </c>
+      <c r="M49" t="s">
+        <v>140</v>
+      </c>
+      <c r="N49" t="s">
+        <v>154</v>
+      </c>
+      <c r="O49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q49" t="s">
         <v>133</v>
       </c>
-      <c r="E49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I49" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" t="s">
-        <v>117</v>
-      </c>
-      <c r="K49" t="s">
-        <v>119</v>
-      </c>
-      <c r="L49" t="s">
-        <v>151</v>
-      </c>
-      <c r="M49" t="s">
-        <v>139</v>
-      </c>
-      <c r="N49" t="s">
-        <v>153</v>
-      </c>
-      <c r="O49" t="s">
-        <v>118</v>
-      </c>
-      <c r="P49" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>132</v>
-      </c>
       <c r="R49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>95</v>
@@ -3069,52 +3072,52 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>117</v>
+      </c>
+      <c r="J50" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" t="s">
+        <v>120</v>
+      </c>
+      <c r="L50" t="s">
+        <v>152</v>
+      </c>
+      <c r="M50" t="s">
+        <v>140</v>
+      </c>
+      <c r="N50" t="s">
+        <v>154</v>
+      </c>
+      <c r="O50" t="s">
+        <v>119</v>
+      </c>
+      <c r="P50" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q50" t="s">
         <v>133</v>
       </c>
-      <c r="E50" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50" t="s">
-        <v>117</v>
-      </c>
-      <c r="K50" t="s">
-        <v>119</v>
-      </c>
-      <c r="L50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M50" t="s">
-        <v>139</v>
-      </c>
-      <c r="N50" t="s">
-        <v>153</v>
-      </c>
-      <c r="O50" t="s">
-        <v>118</v>
-      </c>
-      <c r="P50" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>132</v>
-      </c>
       <c r="R50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>95</v>
@@ -3137,52 +3140,52 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" t="s">
+        <v>118</v>
+      </c>
+      <c r="K51" t="s">
+        <v>120</v>
+      </c>
+      <c r="L51" t="s">
+        <v>152</v>
+      </c>
+      <c r="M51" t="s">
+        <v>140</v>
+      </c>
+      <c r="N51" t="s">
+        <v>154</v>
+      </c>
+      <c r="O51" t="s">
+        <v>119</v>
+      </c>
+      <c r="P51" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q51" t="s">
         <v>133</v>
       </c>
-      <c r="E51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" t="s">
-        <v>116</v>
-      </c>
-      <c r="J51" t="s">
-        <v>117</v>
-      </c>
-      <c r="K51" t="s">
-        <v>119</v>
-      </c>
-      <c r="L51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M51" t="s">
-        <v>139</v>
-      </c>
-      <c r="N51" t="s">
-        <v>153</v>
-      </c>
-      <c r="O51" t="s">
-        <v>118</v>
-      </c>
-      <c r="P51" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>132</v>
-      </c>
       <c r="R51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>95</v>
@@ -3205,52 +3208,52 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s">
+        <v>120</v>
+      </c>
+      <c r="L52" t="s">
+        <v>152</v>
+      </c>
+      <c r="M52" t="s">
+        <v>140</v>
+      </c>
+      <c r="N52" t="s">
+        <v>154</v>
+      </c>
+      <c r="O52" t="s">
         <v>119</v>
       </c>
-      <c r="L52" t="s">
-        <v>151</v>
-      </c>
-      <c r="M52" t="s">
-        <v>139</v>
-      </c>
-      <c r="N52" t="s">
-        <v>153</v>
-      </c>
-      <c r="O52" t="s">
-        <v>118</v>
-      </c>
       <c r="P52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>95</v>
@@ -3273,52 +3276,52 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K53" t="s">
+        <v>120</v>
+      </c>
+      <c r="L53" t="s">
+        <v>152</v>
+      </c>
+      <c r="M53" t="s">
+        <v>140</v>
+      </c>
+      <c r="N53" t="s">
+        <v>154</v>
+      </c>
+      <c r="O53" t="s">
         <v>119</v>
       </c>
-      <c r="L53" t="s">
-        <v>151</v>
-      </c>
-      <c r="M53" t="s">
-        <v>139</v>
-      </c>
-      <c r="N53" t="s">
-        <v>153</v>
-      </c>
-      <c r="O53" t="s">
-        <v>118</v>
-      </c>
       <c r="P53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T53" s="4" t="s">
         <v>95</v>
@@ -3341,52 +3344,52 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K54" t="s">
+        <v>120</v>
+      </c>
+      <c r="L54" t="s">
+        <v>152</v>
+      </c>
+      <c r="M54" t="s">
+        <v>140</v>
+      </c>
+      <c r="N54" t="s">
+        <v>154</v>
+      </c>
+      <c r="O54" t="s">
         <v>119</v>
       </c>
-      <c r="L54" t="s">
-        <v>151</v>
-      </c>
-      <c r="M54" t="s">
-        <v>139</v>
-      </c>
-      <c r="N54" t="s">
-        <v>153</v>
-      </c>
-      <c r="O54" t="s">
-        <v>118</v>
-      </c>
       <c r="P54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T54" s="4" t="s">
         <v>95</v>
@@ -3409,52 +3412,52 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K55" t="s">
+        <v>120</v>
+      </c>
+      <c r="L55" t="s">
+        <v>152</v>
+      </c>
+      <c r="M55" t="s">
+        <v>140</v>
+      </c>
+      <c r="N55" t="s">
+        <v>154</v>
+      </c>
+      <c r="O55" t="s">
         <v>119</v>
       </c>
-      <c r="L55" t="s">
-        <v>151</v>
-      </c>
-      <c r="M55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N55" t="s">
-        <v>153</v>
-      </c>
-      <c r="O55" t="s">
-        <v>118</v>
-      </c>
       <c r="P55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T55" s="4" t="s">
         <v>95</v>
@@ -3477,58 +3480,58 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K56" t="s">
+        <v>120</v>
+      </c>
+      <c r="L56" t="s">
+        <v>152</v>
+      </c>
+      <c r="M56" t="s">
+        <v>140</v>
+      </c>
+      <c r="N56" t="s">
+        <v>154</v>
+      </c>
+      <c r="O56" t="s">
         <v>119</v>
       </c>
-      <c r="L56" t="s">
-        <v>151</v>
-      </c>
-      <c r="M56" t="s">
-        <v>139</v>
-      </c>
-      <c r="N56" t="s">
-        <v>153</v>
-      </c>
-      <c r="O56" t="s">
-        <v>118</v>
-      </c>
       <c r="P56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T56" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X56" t="s">
         <v>7</v>
@@ -3545,16 +3548,16 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T57" s="4" t="s">
         <v>95</v>
@@ -3577,34 +3580,34 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G58" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" t="s">
         <v>127</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>129</v>
-      </c>
-      <c r="I58" t="s">
-        <v>126</v>
-      </c>
-      <c r="J58" t="s">
-        <v>128</v>
       </c>
       <c r="T58" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X58" t="s">
         <v>7</v>
@@ -3621,58 +3624,58 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K59" t="s">
+        <v>120</v>
+      </c>
+      <c r="L59" t="s">
+        <v>152</v>
+      </c>
+      <c r="M59" t="s">
+        <v>140</v>
+      </c>
+      <c r="N59" t="s">
+        <v>154</v>
+      </c>
+      <c r="O59" t="s">
         <v>119</v>
       </c>
-      <c r="L59" t="s">
-        <v>151</v>
-      </c>
-      <c r="M59" t="s">
-        <v>139</v>
-      </c>
-      <c r="N59" t="s">
-        <v>153</v>
-      </c>
-      <c r="O59" t="s">
-        <v>118</v>
-      </c>
       <c r="P59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T59" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X59" t="s">
         <v>7</v>
@@ -3689,34 +3692,34 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" t="s">
         <v>127</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>129</v>
       </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" t="s">
-        <v>128</v>
-      </c>
       <c r="G60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" t="s">
+        <v>144</v>
+      </c>
+      <c r="J60" t="s">
         <v>132</v>
-      </c>
-      <c r="H60" t="s">
-        <v>133</v>
-      </c>
-      <c r="I60" t="s">
-        <v>143</v>
-      </c>
-      <c r="J60" t="s">
-        <v>131</v>
       </c>
       <c r="T60" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X60" t="s">
         <v>7</v>
@@ -3733,34 +3736,34 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" t="s">
         <v>127</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>129</v>
       </c>
-      <c r="E61" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" t="s">
-        <v>128</v>
-      </c>
       <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" t="s">
+        <v>144</v>
+      </c>
+      <c r="J61" t="s">
         <v>132</v>
-      </c>
-      <c r="H61" t="s">
-        <v>133</v>
-      </c>
-      <c r="I61" t="s">
-        <v>143</v>
-      </c>
-      <c r="J61" t="s">
-        <v>131</v>
       </c>
       <c r="T61" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X61" t="s">
         <v>7</v>
@@ -3777,40 +3780,40 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" t="s">
         <v>137</v>
       </c>
-      <c r="D62" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" t="s">
-        <v>136</v>
-      </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T62" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X62" t="s">
         <v>7</v>
       </c>
       <c r="Y62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
@@ -3821,40 +3824,40 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
         <v>137</v>
       </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" t="s">
-        <v>135</v>
-      </c>
-      <c r="F63" t="s">
-        <v>136</v>
-      </c>
       <c r="G63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T63" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X63" t="s">
         <v>7</v>
       </c>
       <c r="Y63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
@@ -3865,22 +3868,22 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" t="s">
         <v>132</v>
-      </c>
-      <c r="F64" t="s">
-        <v>133</v>
-      </c>
-      <c r="G64" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" t="s">
-        <v>131</v>
       </c>
       <c r="T64" s="4" t="s">
         <v>95</v>
@@ -3892,7 +3895,7 @@
         <v>7</v>
       </c>
       <c r="Y64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
@@ -3903,22 +3906,22 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" t="s">
         <v>132</v>
-      </c>
-      <c r="F65" t="s">
-        <v>133</v>
-      </c>
-      <c r="G65" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" t="s">
-        <v>131</v>
       </c>
       <c r="T65" s="4" t="s">
         <v>95</v>
@@ -3930,7 +3933,7 @@
         <v>7</v>
       </c>
       <c r="Y65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
@@ -3941,58 +3944,58 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K66" t="s">
+        <v>120</v>
+      </c>
+      <c r="L66" t="s">
+        <v>152</v>
+      </c>
+      <c r="M66" t="s">
+        <v>140</v>
+      </c>
+      <c r="N66" t="s">
+        <v>154</v>
+      </c>
+      <c r="O66" t="s">
         <v>119</v>
       </c>
-      <c r="L66" t="s">
-        <v>151</v>
-      </c>
-      <c r="M66" t="s">
-        <v>139</v>
-      </c>
-      <c r="N66" t="s">
-        <v>153</v>
-      </c>
-      <c r="O66" t="s">
-        <v>118</v>
-      </c>
       <c r="P66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T66" s="4" t="s">
         <v>95</v>
       </c>
       <c r="W66" t="s">
+        <v>103</v>
+      </c>
+      <c r="X66" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y66" t="s">
         <v>102</v>
-      </c>
-      <c r="X66" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4013,85 +4016,85 @@
   <sheetData>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
